--- a/data/in/df_csv_cols.xlsx
+++ b/data/in/df_csv_cols.xlsx
@@ -289,7 +289,7 @@
     <t xml:space="preserve">[01.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">[01.01] CTCAE </t>
+    <t xml:space="preserve">[01.01] CTCAE</t>
   </si>
   <si>
     <t xml:space="preserve">CTCAE </t>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
